--- a/Data/Input/Score Sheet - Q1.xlsx
+++ b/Data/Input/Score Sheet - Q1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakina\UiPath\Projects\BulkEmails\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakina\UiPath\Projects\BulkEmailProcessing\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Scores" sheetId="1" r:id="rId1"/>
@@ -632,8 +632,8 @@
   </sheetPr>
   <dimension ref="A1:Z244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92:E103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6452,5 +6452,6 @@
   </sheetData>
   <autoFilter ref="B1:B247"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>